--- a/ccarbon2.xlsx
+++ b/ccarbon2.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>nd</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
